--- a/2021_results.xlsx
+++ b/2021_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{2CF54186-53AE-5E44-AD63-1BECB3500472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F20258C-69A9-A340-8CB4-16A8B3F632C4}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{2CF54186-53AE-5E44-AD63-1BECB3500472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{59CF1656-491A-E249-A794-4668B65ADB84}"/>
   <bookViews>
     <workbookView xWindow="32680" yWindow="2520" windowWidth="27240" windowHeight="15620" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -293,18 +293,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -337,13 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +654,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,11 +773,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>78</v>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
       </c>
       <c r="P5" t="s">
         <v>17</v>
@@ -843,7 +836,7 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -861,10 +854,10 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="P9" t="s">
@@ -941,11 +934,11 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>78</v>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
       </c>
       <c r="P13" t="s">
         <v>33</v>
@@ -1021,10 +1014,10 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="P17" t="s">
@@ -1061,7 +1054,7 @@
       <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="O19" t="s">
@@ -1124,11 +1117,11 @@
       <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>78</v>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>47</v>
       </c>
       <c r="P22" t="s">
         <v>53</v>
@@ -1204,10 +1197,10 @@
       <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>78</v>
       </c>
       <c r="P26" t="s">
@@ -1284,11 +1277,11 @@
       <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>78</v>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
       </c>
       <c r="P30" t="s">
         <v>69</v>

--- a/2021_results.xlsx
+++ b/2021_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{2CF54186-53AE-5E44-AD63-1BECB3500472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{59CF1656-491A-E249-A794-4668B65ADB84}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{2CF54186-53AE-5E44-AD63-1BECB3500472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCA6D401-CA85-C743-82FF-DC27D87869DF}"/>
   <bookViews>
     <workbookView xWindow="32680" yWindow="2520" windowWidth="27240" windowHeight="15620" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -293,18 +293,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -331,12 +325,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +647,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,11 +847,11 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>78</v>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
@@ -1014,10 +1007,10 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="P17" t="s">
@@ -1054,7 +1047,7 @@
       <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="O19" t="s">
@@ -1197,11 +1190,11 @@
       <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>78</v>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
       </c>
       <c r="P26" t="s">
         <v>61</v>

--- a/2021_results.xlsx
+++ b/2021_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessic/njw179/OneDrive - Newcastle University/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{2CF54186-53AE-5E44-AD63-1BECB3500472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCA6D401-CA85-C743-82FF-DC27D87869DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874C36-E851-1D4D-9873-CAD990425961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32680" yWindow="2520" windowWidth="27240" windowHeight="15620" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,18 +293,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -325,11 +319,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +640,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,11 +1000,11 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>78</v>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
       </c>
       <c r="P17" t="s">
         <v>41</v>
@@ -1047,7 +1040,7 @@
       <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="O19" t="s">

--- a/2021_results.xlsx
+++ b/2021_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessic/njw179/OneDrive - Newcastle University/Uni_Work/MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/Uni_Work/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874C36-E851-1D4D-9873-CAD990425961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8A874C36-E851-1D4D-9873-CAD990425961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E37D049B-7598-634D-B4D7-A7AA259AC559}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Tricksy Taxonomy</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Hydra</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -293,18 +290,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC69FFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,10 +310,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +630,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,8 +1030,8 @@
       <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>78</v>
+      <c r="J19" t="s">
+        <v>46</v>
       </c>
       <c r="O19" t="s">
         <v>47</v>
